--- a/xlsx/阿拉斯加湾_intext.xlsx
+++ b/xlsx/阿拉斯加湾_intext.xlsx
@@ -29,13 +29,13 @@
     <t>太平洋</t>
   </si>
   <si>
-    <t>政策_政策_美國_阿拉斯加湾</t>
+    <t>政策_政策_美国_阿拉斯加湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%81%A3</t>
   </si>
   <si>
-    <t>海灣</t>
+    <t>海湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
@@ -71,13 +71,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%92%99%E6%A3%AE%E7%81%A3</t>
   </si>
   <si>
-    <t>阿蒙森灣</t>
+    <t>阿蒙森湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%80%AB%E6%94%AF%E6%B5%B7</t>
   </si>
   <si>
-    <t>巴倫支海</t>
+    <t>巴伦支海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%BC%97%E7%89%B9%E6%B5%B7</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%8B%89%E5%A7%86%E6%B5%B7%E5%B3%BD</t>
   </si>
   <si>
-    <t>弗拉姆海峽</t>
+    <t>弗拉姆海峡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E5%85%B0%E6%B5%B7</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E8%A5%BF%E4%BA%9E%E7%81%A3</t>
   </si>
   <si>
-    <t>布西亞灣</t>
+    <t>布西亚湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%80%E6%8B%89%E6%B5%B7</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%8B%89%E6%B5%B7%E5%B3%BD</t>
   </si>
   <si>
-    <t>卡拉海峽</t>
+    <t>卡拉海峡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%99%AE%E6%8D%B7%E5%A4%AB%E6%B5%B7</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%BA%E5%BE%B7%E7%88%BE%E6%B5%B7</t>
   </si>
   <si>
-    <t>旺德爾海</t>
+    <t>旺德尔海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E6%B5%B7</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%8A%AC%E7%81%A3</t>
   </si>
   <si>
-    <t>巴芬灣</t>
+    <t>巴芬湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%88%A9%E9%98%BF%E9%87%8C%E6%B5%B7</t>
@@ -227,13 +227,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E6%96%AF%E9%96%8B%E7%81%A3</t>
   </si>
   <si>
-    <t>比斯開灣</t>
+    <t>比斯开湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%9A%84%E5%B0%BC%E4%BA%9E%E7%81%A3</t>
   </si>
   <si>
-    <t>波的尼亞灣</t>
+    <t>波的尼亚湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E4%BD%A9%E5%88%87%E6%B9%BE</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E7%88%BE%E7%89%B9%E6%B5%B7</t>
   </si>
   <si>
-    <t>凱爾特海</t>
+    <t>凯尔特海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E7%BB%B4%E6%96%AF%E6%B5%B7%E5%B3%A1</t>
@@ -299,13 +299,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD%E7%81%A3</t>
   </si>
   <si>
-    <t>芬蘭灣</t>
+    <t>芬兰湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%BF%81%E7%81%A3</t>
   </si>
   <si>
-    <t>利翁灣</t>
+    <t>利翁湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%A0%E5%86%85%E4%BA%9A%E6%B9%BE</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%BE%85%E5%80%AB%E6%96%AF%E7%81%A3</t>
   </si>
   <si>
-    <t>聖羅倫斯灣</t>
+    <t>圣罗伦斯湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%86%85%E7%91%9E%E6%8B%89%E6%B9%BE</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%E7%81%A3</t>
   </si>
   <si>
-    <t>詹姆斯灣</t>
+    <t>詹姆斯湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%A5%A5%E5%B0%BC%E4%BA%9A%E6%B5%B7</t>
@@ -359,13 +359,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E6%B5%B7</t>
   </si>
   <si>
-    <t>愛爾蘭海</t>
+    <t>爱尔兰海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E7%88%BE%E6%98%8E%E5%8E%84%E6%B5%B7</t>
   </si>
   <si>
-    <t>伊爾明厄海</t>
+    <t>伊尔明厄海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%B8%83%E6%8B%89%E5%A4%9A%E6%B5%B7</t>
@@ -383,13 +383,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9E%E6%B5%B7</t>
   </si>
   <si>
-    <t>利比亞海</t>
+    <t>利比亚海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%8F%A4%E9%87%8C%E4%BA%9E%E6%B5%B7</t>
   </si>
   <si>
-    <t>利古里亞海</t>
+    <t>利古里亚海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%B0%94%E9%A9%AC%E6%8B%89%E6%B5%B7</t>
@@ -407,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E7%88%BE%E6%89%98%E7%BF%81%E6%B5%B7</t>
   </si>
   <si>
-    <t>米爾托翁海</t>
+    <t>米尔托翁海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%B5%B7_(%E5%A4%A7%E8%A5%BF%E6%B4%8B)</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%BE%85%E5%80%AB%E6%96%AF%E6%B5%B7%E9%81%93</t>
   </si>
   <si>
-    <t>聖羅倫斯海道</t>
+    <t>圣罗伦斯海道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%B0%BE%E8%97%BB%E6%B5%B7</t>
@@ -437,13 +437,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E8%98%AD%E6%B5%B7</t>
   </si>
   <si>
-    <t>奧蘭海</t>
+    <t>奥兰海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%80%9F%E6%B5%B7</t>
   </si>
   <si>
-    <t>亞速海</t>
+    <t>亚速海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E7%89%B9%E6%B5%B7</t>
@@ -491,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E7%81%A3</t>
   </si>
   <si>
-    <t>孟加拉灣</t>
+    <t>孟加拉湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E4%B8%81%E6%B9%BE</t>
@@ -515,13 +515,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%98%A0%E5%A5%87%E7%81%A3</t>
   </si>
   <si>
-    <t>嘠奇灣</t>
+    <t>嘠奇湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%9B%BC%E7%81%A3</t>
   </si>
   <si>
-    <t>阿曼灣</t>
+    <t>阿曼湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%BC%8A%E5%A3%AB%E6%B9%BE</t>
@@ -623,19 +623,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%B5%B7%E5%B3%BD</t>
   </si>
   <si>
-    <t>台灣海峽</t>
+    <t>台湾海峡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A3%AB%E6%B5%B7%E5%B3%BD</t>
   </si>
   <si>
-    <t>巴士海峽</t>
+    <t>巴士海峡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E8%98%AD%E6%B5%B7</t>
   </si>
   <si>
-    <t>塞蘭海</t>
+    <t>塞兰海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9%E6%B5%B7</t>
@@ -671,19 +671,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A5%94%E5%A1%94%E5%88%A9%E4%BA%9E%E7%81%A3</t>
   </si>
   <si>
-    <t>卡奔塔利亞灣</t>
+    <t>卡奔塔利亚湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E5%A1%9E%E5%8D%A1%E7%81%A3</t>
   </si>
   <si>
-    <t>豐塞卡灣</t>
+    <t>丰塞卡湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B%E7%81%A3</t>
   </si>
   <si>
-    <t>泰國灣</t>
+    <t>泰国湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%83%A8%E6%B9%BE</t>
@@ -695,7 +695,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E9%A6%AC%E9%BB%91%E6%8B%89%E6%B5%B7</t>
   </si>
   <si>
-    <t>哈馬黑拉海</t>
+    <t>哈马黑拉海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%AA%E5%93%87%E6%B5%B7</t>
@@ -707,7 +707,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%B5%B7</t>
   </si>
   <si>
-    <t>科羅海</t>
+    <t>科罗海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9B%E5%8A%A0%E9%94%A1%E6%B5%B7%E5%B3%A1</t>
@@ -719,13 +719,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%AD%AF%E5%8F%A4%E6%B5%B7</t>
   </si>
   <si>
-    <t>馬魯古海</t>
+    <t>马鲁古海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E7%BE%85%E7%81%A3</t>
   </si>
   <si>
-    <t>莫羅灣</t>
+    <t>莫罗湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE%E6%B5%B7</t>
@@ -761,13 +761,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%80%A8%E6%88%B6%E5%85%A7%E6%B5%B7</t>
   </si>
   <si>
-    <t>瀨戶內海</t>
+    <t>濑户内海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8C%AB%E5%B8%83%E5%BB%B6%E6%B5%B7</t>
   </si>
   <si>
-    <t>錫布延海</t>
+    <t>锡布延海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%80%E7%BD%97%E9%97%A8%E6%B5%B7</t>
@@ -827,19 +827,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%81%AF%E9%82%A6%E6%B5%B7</t>
   </si>
   <si>
-    <t>英聯邦海</t>
+    <t>英联邦海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%87%E8%88%AA%E5%93%A1%E6%B5%B7</t>
   </si>
   <si>
-    <t>宇航員海</t>
+    <t>宇航员海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E7%B6%AD%E6%96%AF%E6%B5%B7</t>
   </si>
   <si>
-    <t>戴維斯海</t>
+    <t>戴维斯海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E5%B0%94%E7%BB%B4%E5%B0%94%E6%B5%B7</t>
@@ -863,7 +863,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E7%91%9F%E7%88%BE-%E6%8B%89%E6%A3%AE%E6%B5%B7</t>
   </si>
   <si>
-    <t>里瑟爾-拉森海</t>
+    <t>里瑟尔-拉森海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A3%AE%E6%B5%B7</t>
@@ -899,19 +899,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B9%B9%E6%B5%B7</t>
   </si>
   <si>
-    <t>鹹海</t>
+    <t>咸海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%A1%E6%B5%B7</t>
   </si>
   <si>
-    <t>裡海</t>
+    <t>里海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E7%88%BE%E9%A0%93%E6%B9%96</t>
   </si>
   <si>
-    <t>索爾頓湖</t>
+    <t>索尔顿湖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E6%B5%B7</t>
@@ -923,7 +923,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
